--- a/biology/Botanique/Amphipogon/Amphipogon.xlsx
+++ b/biology/Botanique/Amphipogon/Amphipogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphipogon est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae[2], originaire d'Australie, qui comprend huit espèces.
-Ce sont des plantes herbacées vivaces, rhizomateuses ou cespiteuses, aux tiges de 55 à 75 cm de haut. L'inflorescence est un épi simple ou une panicule[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphipogon est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, originaire d'Australie, qui comprend huit espèces.
+Ce sont des plantes herbacées vivaces, rhizomateuses ou cespiteuses, aux tiges de 55 à 75 cm de haut. L'inflorescence est un épi simple ou une panicule.
 Étymologie
-le nom générique « Amphipogon » est dérivé de deux racines grecques, ἀμφίς, (amphis), des deux côtés, et πώγων (pogon), barbe, en référence aux arêtes ciliées présentes sur les lemmes et les paléoles, ou aux épillets aristés[3].
+le nom générique « Amphipogon » est dérivé de deux racines grecques, ἀμφίς, (amphis), des deux côtés, et πώγων (pogon), barbe, en référence aux arêtes ciliées présentes sur les lemmes et les paléoles, ou aux épillets aristés.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (1er mai 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1er mai 2017) :
 Amphipogon amphipogonoides (Steud.) Vickery
 Amphipogon avenaceus R.Br.
 Amphipogon caricinus F.Muell.
@@ -552,9 +566,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1er mai 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1er mai 2017) :
 Diplopogon R. Br.
 Gamelythrum Nees
 Pentacraspedon Steud.</t>
